--- a/02_MasterWifoMannheim/99_Backup/Course45.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course45.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD3D0DB4B639A2011591CE8767EBDF925" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E41DB7E-C25C-4483-9A99-630D477EDE2F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>ACC 520 IFRS Accounting and Capital Markets</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The lecture introduces the most relevant impact on capital markets. background of the international harmonization process in financial reporting, we will focus on key accounting issues such as revenue recognition and financial instruments. We will major research findings and apply the knowledge to case studies from accounting practice. We will conclude the lecture by an assessment of the importance of accounting for corporate statement analysis (outside perspective).</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will know about economic consequences of financial reporting and about the role accounting information plays on capital markets, understand the special role of international capital markets, be familiar with the main impact on financial statements, and demonstrate orally and in writing their comprehension in the solution of case studies.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Case Studies 2 2 Exercise Session 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Case study presentation (25%) and written exam (90 minutes, 75%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Jannis Bischof, Prof. Dr. Jens Wüstemann (Lecture), Dr. Ulrich Störk (Case Studies)</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
-  </si>
-  <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>ACC 515</t>
-  </si>
-  <si>
-    <t>Accounting and Taxation (AAT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,145 +420,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ACC 520 IFRS Accounting and Capital Markets</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The lecture introduces the most relevant impact on capital markets. background of the international harmonization process in financial reporting, we will focus on key accounting issues such as revenue recognition and financial instruments. We will major research findings and apply the knowledge to case studies from accounting practice. We will conclude the lecture by an assessment of the importance of accounting for corporate statement analysis (outside perspective).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will know about economic consequences of financial reporting and about the role accounting information plays on capital markets, understand the special role of international capital markets, be familiar with the main impact on financial statements, and demonstrate orally and in writing their comprehension in the solution of case studies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accounting and Taxation (AAT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Not Taken</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ACC 515</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Case Studies 2 2 Exercise Session 2 2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Case study presentation (25%) and written exam (90 minutes, 75%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Jannis Bischof, Prof. Dr. Jens Wüstemann (Lecture), Dr. Ulrich Störk (Case Studies)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
